--- a/mainapp/weatherdata.xlsx
+++ b/mainapp/weatherdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarav Jain\Desktop\SIS\mainapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D58BD93-46A5-4993-AB3A-088F072BBBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E398611E-E650-4349-9445-407440D99954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,148 +401,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
